--- a/target/test-classes/TBR/Xlsdata_Files/Timesheets.xlsx
+++ b/target/test-classes/TBR/Xlsdata_Files/Timesheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10845" windowHeight="9135" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="4560" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TimeSheetGenerationFlow1" sheetId="1" r:id="rId1"/>
@@ -314,7 +314,7 @@
     <t>Megas</t>
   </si>
   <si>
-    <t>qwertyjob</t>
+    <t>lock</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1000,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
